--- a/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
+++ b/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2958,7 +2959,6 @@
           <t>银华稳利灵活配置混合C</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>21.05</t>
@@ -2990,7 +2990,6 @@
           <t>鑫元鑫新收益灵活配置混合C</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>73.69</t>
@@ -3022,7 +3021,6 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>92.64</t>
@@ -3038,6 +3036,3174 @@
       </c>
       <c r="H33" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>281.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>26.5991</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.2780</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>201.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.4616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.6556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>113.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.4690</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>112.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7057</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7541</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7191</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1495</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3271</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2102</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1620</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5572</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5477</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5079</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4789</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4548</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4459</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>65.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
+++ b/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6209,4 +6210,2718 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>253.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.8765</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>222.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.9861</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>142.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.1142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.0917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3850</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1449</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6749</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7014</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0555</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6963</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6564</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4961</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4558</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4386</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>54.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>38.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>38.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>50.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
+++ b/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8924,4 +8925,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>69.70999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
+++ b/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8933,7 +8934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8944,17 +8945,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8964,14 +8985,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" t="n">
-        <v>69.70999999999999</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>274.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.5693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -8980,14 +9023,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>92.97</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>138.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -8996,14 +9061,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.24</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>206.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.8274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -9012,13 +9099,1935 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>109.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7812</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5853</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5377</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9771</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7355</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7059</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6976</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>69.70999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>92.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>63.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
+++ b/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10926,7 +10927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10937,17 +10938,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10957,14 +10978,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.77</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>246.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.4559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -10973,14 +11016,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>69.70999999999999</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.7996</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -10989,14 +11054,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92.97</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -11005,14 +11092,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.24</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>105.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -11021,13 +11130,2105 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5591</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7459</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7532</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7026</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5730</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.70999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>92.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>63.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
+++ b/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13111,7 +13112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13122,17 +13123,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13142,14 +13163,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.99</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>266.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.8826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -13158,14 +13201,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.77</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>282.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.2808</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -13174,14 +13239,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.70999999999999</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>127.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.0052</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -13190,14 +13277,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>82</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92.97</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>101.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.8352</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -13206,14 +13315,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>32</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43.24</v>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>109.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6610</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -13222,13 +13353,1817 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5661</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0753</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4963</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7549</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7314</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5462</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4085</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.70999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>82</v>
+      </c>
+      <c r="D6" t="n">
+        <v>92.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>63.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
+++ b/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>63.52</v>
+        <v>85.43000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>51.99</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>50.77</v>
+        <v>51.99</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>69.70999999999999</v>
+        <v>50.77</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
-        <v>92.97</v>
+        <v>69.70999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n">
-        <v>43.24</v>
+        <v>92.97</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>34</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>63.05</v>
       </c>
     </row>
@@ -600,6 +617,3482 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>239.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.8506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>293.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.6437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>177.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.8522</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>123.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.2362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.3928</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安半导体ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>122.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.6956</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>112.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8935</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2040</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>41.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0842</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4770</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4745</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4302</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8910</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7855</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7306</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7032</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6685</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3871</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3676</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013755</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013861</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012847</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013862</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013756</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015950</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2517,7 +6010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4701,7 +8194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6693,7 +10186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9407,7 +12900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12575,7 +16068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13826,7 +17319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
+++ b/数据整理/stocks/A股/科创板/688012-中微公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D2" t="n">
-        <v>85.43000000000001</v>
+        <v>91.69</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
-        <v>63.52</v>
+        <v>85.43000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>51.99</v>
+        <v>63.52</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>50.77</v>
+        <v>51.99</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>69.70999999999999</v>
+        <v>50.77</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>92.97</v>
+        <v>69.70999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>43.24</v>
+        <v>92.97</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1376 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43.24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>63.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>327.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.9760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.7331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5235</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4938</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7206</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4336</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3833</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3506</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002823</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002824</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商盛达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1980,3594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24.0412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>248.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17.1279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>204.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.6296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>169.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.9820</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安半导体ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>145.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.2599</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>130.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.7093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5808</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7177</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6635</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>017766</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴和混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3421</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9699</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012502</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华安盛混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8539</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8524</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8132</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6665</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5774</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4595</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3852</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3580</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>588200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>588290</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012847</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>016050</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏兴和混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4092,7 +9043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6010,7 +10961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8194,7 +13145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10186,7 +15137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12900,7 +17851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16068,7 +21019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17317,1350 +22268,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>327.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>22.9760</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>124.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>8.7331</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002560</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安和鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>82.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5.8094</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512480</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国联安中证全指半导体产品与设备ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>105.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5.2031</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>65.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4.5235</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>49.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.4938</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>49.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3.3906</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>30.46</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.9068</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519670</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银河行业混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.7206</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.4336</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009960</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华多元机遇混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>46.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>72.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.8188</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001404</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商移动互联网产业股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4179</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009986</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4015</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>920003</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中金新锐股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3833</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000522</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华润元大信息传媒科技混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>80.50</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3623</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005119</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银华智荟内在价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3506</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008655</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2696</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002307</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银华多元视野灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1693</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005251</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>银华多元动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1546</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>673010</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>西部利得新动向混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>67.50</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1205</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>481017</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>工银量化策略混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1092</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>920923</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中金新锐股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0618</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>673141</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0435</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008656</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.84</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0325</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>570006</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>诺德中小盘混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009987</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002145</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>诺安景鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>68.31</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002823</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>161718</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>招商沪深300高贝塔指数</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002824</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>招商盛达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>673143</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>